--- a/resource/40.design/440.development/[Saturn]449crawling_insert/23비타민미네랄.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/23비타민미네랄.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -761,10 +761,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>384</v>
+        <v>195</v>
       </c>
       <c r="C3" s="6">
-        <v>384</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -783,11 +783,11 @@
       </c>
       <c r="I3" s="11">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -806,15 +806,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (384, 384, '소스내추럴스 셀레늄 200mcg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/01/02/1000002974/1000002974_main_016.jpg', 16400, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (195, 195, '소스내추럴스 셀레늄 200mcg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/01/02/1000002974/1000002974_main_016.jpg', 16400, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>385</v>
+        <v>196</v>
       </c>
       <c r="C4" s="6">
-        <v>385</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -833,11 +833,11 @@
       </c>
       <c r="I4" s="11">
         <f t="shared" ref="I4:I13" ca="1" si="0">RANDBETWEEN(1, 5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J13" ca="1" si="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -856,15 +856,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P13" ca="1" si="2">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (385, 385, '솔가 칼슘 "600" 240정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002950/1000002950_main_012.jpg', 29800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (196, 196, '솔가 칼슘 "600" 240정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002950/1000002950_main_012.jpg', 29800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>386</v>
+        <v>197</v>
       </c>
       <c r="C5" s="6">
-        <v>386</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -887,7 +887,7 @@
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -906,15 +906,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (386, 386, '솔가 칼슘 "600" 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002949/1000002949_main_035.jpg', 15800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (197, 197, '솔가 칼슘 "600" 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002949/1000002949_main_035.jpg', 15800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="C6" s="6">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -933,11 +933,11 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -956,15 +956,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (387, 387, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/10/41/1000002935/1000002935_main_037.jpg', 19800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (198, 198, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/10/41/1000002935/1000002935_main_037.jpg', 19800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="C7" s="6">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -983,11 +983,11 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -1006,15 +1006,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (388, 388, '블루보넷 버퍼드 비타민C-1000mg 180캐플릿', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/37/1000002929/1000002929_main_095.jpg', 37000, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (199, 199, '블루보넷 버퍼드 비타민C-1000mg 180캐플릿', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/37/1000002929/1000002929_main_095.jpg', 37000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="C8" s="6">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1033,11 +1033,11 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1056,15 +1056,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (389, 389, '라이프익스텐션 비건 비타민D3 5000IU 60베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002928/1000002928_main_041.jpg', 17800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (200, 200, '라이프익스텐션 비건 비타민D3 5000IU 60베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002928/1000002928_main_041.jpg', 17800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>390</v>
+        <v>201</v>
       </c>
       <c r="C9" s="6">
-        <v>390</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1106,15 +1106,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (390, 390, '라이프익스텐션 알리포산 R리포산 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/10/43/1000002994/1000002994_main_030.jpg', 36500, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (201, 201, '라이프익스텐션 알리포산 R리포산 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/10/43/1000002994/1000002994_main_030.jpg', 36500, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>391</v>
+        <v>202</v>
       </c>
       <c r="C10" s="6">
-        <v>391</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1133,11 +1133,11 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1156,15 +1156,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (391, 391, '라이프익스텐션 알파리포산 위드 비오틴 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002895/1000002895_main_029.jpg', 29800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (202, 202, '라이프익스텐션 알파리포산 위드 비오틴 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002895/1000002895_main_029.jpg', 29800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>392</v>
+        <v>203</v>
       </c>
       <c r="C11" s="6">
-        <v>392</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1206,15 +1206,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (392, 392, '라이프익스텐션 본 리스토어 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002893/1000002893_main_094.jpg', 17800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (203, 203, '라이프익스텐션 본 리스토어 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002893/1000002893_main_094.jpg', 17800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>393</v>
+        <v>204</v>
       </c>
       <c r="C12" s="6">
-        <v>393</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1233,11 +1233,11 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1256,15 +1256,15 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (393, 393, '나우푸드 비오틴 1000mcg 100베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002892/1000002892_main_095.jpg', 10800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (204, 204, '나우푸드 비오틴 1000mcg 100베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002892/1000002892_main_095.jpg', 10800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>394</v>
+        <v>205</v>
       </c>
       <c r="C13" s="6">
-        <v>394</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1283,11 +1283,11 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (394, 394, '솔가 풀스펙트럼 오메가 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002879/1000002879_main_015.jpg', 25000, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (205, 205, '솔가 풀스펙트럼 오메가 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002879/1000002879_main_015.jpg', 25000, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
